--- a/DataAnalysis/ProcessedData/PhenoTable.xlsx
+++ b/DataAnalysis/ProcessedData/PhenoTable.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>$FLN_{min}$</t>
+          <t>MinLN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>$^PS$</t>
+          <t>PpLN</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>p $^PS$</t>
+          <t>p PpLN</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>$^{CV}S$</t>
+          <t>CvLN</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>p $^{CV}S$</t>
+          <t>p CvLN</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>$^{SDV}S$</t>
+          <t>PvLN</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>p $^{SDV}S$</t>
+          <t>p PvLN</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,11 +496,11 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.04</v>
+        <v>0.29</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.05</v>
+        <v>0.39</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -556,11 +556,11 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.17</v>
+        <v>0.87</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
@@ -590,11 +590,11 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.22</v>
+        <v>1.47</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -616,7 +616,7 @@
         <v>9.140000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6.05</v>
+        <v>5.02</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -632,11 +632,11 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
@@ -658,15 +658,15 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.35</v>
+        <v>2.6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-1.25</v>
+        <v>-1.24</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
